--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H2">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N2">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q2">
-        <v>10.51676803806944</v>
+        <v>13.84301647618789</v>
       </c>
       <c r="R2">
-        <v>10.51676803806944</v>
+        <v>124.587148285691</v>
       </c>
       <c r="S2">
-        <v>0.0006515326419949964</v>
+        <v>0.0004974486431641674</v>
       </c>
       <c r="T2">
-        <v>0.0006515326419949964</v>
+        <v>0.0004974486431641673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H3">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N3">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O3">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P3">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q3">
-        <v>32.35074283938793</v>
+        <v>35.00796734850489</v>
       </c>
       <c r="R3">
-        <v>32.35074283938793</v>
+        <v>315.071706136544</v>
       </c>
       <c r="S3">
-        <v>0.002004186540612941</v>
+        <v>0.001258010917447446</v>
       </c>
       <c r="T3">
-        <v>0.002004186540612941</v>
+        <v>0.001258010917447445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H4">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N4">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O4">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P4">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q4">
-        <v>5.710462098254267</v>
+        <v>6.542543912382333</v>
       </c>
       <c r="R4">
-        <v>5.710462098254267</v>
+        <v>58.882895211441</v>
       </c>
       <c r="S4">
-        <v>0.0003537733688163454</v>
+        <v>0.0002351062427509894</v>
       </c>
       <c r="T4">
-        <v>0.0003537733688163454</v>
+        <v>0.0002351062427509893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H5">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N5">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O5">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P5">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q5">
-        <v>6.229512191747529</v>
+        <v>7.010260697775998</v>
       </c>
       <c r="R5">
-        <v>6.229512191747529</v>
+        <v>63.09234627998399</v>
       </c>
       <c r="S5">
-        <v>0.000385929453035114</v>
+        <v>0.0002519136402340021</v>
       </c>
       <c r="T5">
-        <v>0.000385929453035114</v>
+        <v>0.0002519136402340021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H6">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N6">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O6">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P6">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q6">
-        <v>3.788117505073377</v>
+        <v>4.119664350525111</v>
       </c>
       <c r="R6">
-        <v>3.788117505073377</v>
+        <v>37.076979154726</v>
       </c>
       <c r="S6">
-        <v>0.0002346806735048058</v>
+        <v>0.0001480400926333979</v>
       </c>
       <c r="T6">
-        <v>0.0002346806735048058</v>
+        <v>0.0001480400926333978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H7">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N7">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O7">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P7">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q7">
-        <v>151.5406272628729</v>
+        <v>241.3884706111939</v>
       </c>
       <c r="R7">
-        <v>151.5406272628729</v>
+        <v>2172.496235500745</v>
       </c>
       <c r="S7">
-        <v>0.009388213650120885</v>
+        <v>0.008674292007639023</v>
       </c>
       <c r="T7">
-        <v>0.009388213650120885</v>
+        <v>0.00867429200763902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H8">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N8">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O8">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P8">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q8">
-        <v>316.9989598551568</v>
+        <v>387.4851867778666</v>
       </c>
       <c r="R8">
-        <v>316.9989598551568</v>
+        <v>3487.366681000799</v>
       </c>
       <c r="S8">
-        <v>0.01963865410708533</v>
+        <v>0.0139242758787747</v>
       </c>
       <c r="T8">
-        <v>0.01963865410708533</v>
+        <v>0.01392427587877469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H9">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N9">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q9">
-        <v>975.1238967623152</v>
+        <v>979.9214492074667</v>
       </c>
       <c r="R9">
-        <v>975.1238967623152</v>
+        <v>8819.293042867201</v>
       </c>
       <c r="S9">
-        <v>0.06041067430889478</v>
+        <v>0.03521346638243376</v>
       </c>
       <c r="T9">
-        <v>0.06041067430889478</v>
+        <v>0.03521346638243376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H10">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N10">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O10">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P10">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q10">
-        <v>172.1261264759434</v>
+        <v>183.1348575112</v>
       </c>
       <c r="R10">
-        <v>172.1261264759434</v>
+        <v>1648.2137176008</v>
       </c>
       <c r="S10">
-        <v>0.0106635222468806</v>
+        <v>0.006580949068558566</v>
       </c>
       <c r="T10">
-        <v>0.0106635222468806</v>
+        <v>0.006580949068558565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H11">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N11">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O11">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P11">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q11">
-        <v>187.7714596386105</v>
+        <v>196.2268975488</v>
       </c>
       <c r="R11">
-        <v>187.7714596386105</v>
+        <v>1766.0420779392</v>
       </c>
       <c r="S11">
-        <v>0.0116327786965299</v>
+        <v>0.007051411381751486</v>
       </c>
       <c r="T11">
-        <v>0.0116327786965299</v>
+        <v>0.007051411381751484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H12">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N12">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O12">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P12">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q12">
-        <v>114.1823518946614</v>
+        <v>115.3151058565333</v>
       </c>
       <c r="R12">
-        <v>114.1823518946614</v>
+        <v>1037.8359527088</v>
       </c>
       <c r="S12">
-        <v>0.007073801488236258</v>
+        <v>0.004143847046872956</v>
       </c>
       <c r="T12">
-        <v>0.007073801488236258</v>
+        <v>0.004143847046872954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H13">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N13">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O13">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P13">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q13">
-        <v>4567.774153070233</v>
+        <v>6756.797319550667</v>
       </c>
       <c r="R13">
-        <v>4567.774153070233</v>
+        <v>60811.175875956</v>
       </c>
       <c r="S13">
-        <v>0.2829818011782087</v>
+        <v>0.2428054365554988</v>
       </c>
       <c r="T13">
-        <v>0.2829818011782087</v>
+        <v>0.2428054365554987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H14">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N14">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O14">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P14">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q14">
-        <v>480.3282185148872</v>
+        <v>0.4635138826384445</v>
       </c>
       <c r="R14">
-        <v>480.3282185148872</v>
+        <v>4.171624943746</v>
       </c>
       <c r="S14">
-        <v>0.02975719461539083</v>
+        <v>1.66563662192321E-05</v>
       </c>
       <c r="T14">
-        <v>0.02975719461539083</v>
+        <v>1.66563662192321E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H15">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N15">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O15">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P15">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q15">
-        <v>1477.542779248075</v>
+        <v>1.172192411740445</v>
       </c>
       <c r="R15">
-        <v>1477.542779248075</v>
+        <v>10.549731705664</v>
       </c>
       <c r="S15">
-        <v>0.09153642517733469</v>
+        <v>4.212272128337405E-05</v>
       </c>
       <c r="T15">
-        <v>0.09153642517733469</v>
+        <v>4.212272128337405E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H16">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N16">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O16">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P16">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q16">
-        <v>260.81169391797</v>
+        <v>0.2190678553606667</v>
       </c>
       <c r="R16">
-        <v>260.81169391797</v>
+        <v>1.971610698246</v>
       </c>
       <c r="S16">
-        <v>0.01615775220927653</v>
+        <v>7.872200946773519E-06</v>
       </c>
       <c r="T16">
-        <v>0.01615775220927653</v>
+        <v>7.872200946773517E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H17">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N17">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O17">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P17">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q17">
-        <v>284.5180650982714</v>
+        <v>0.234728692256</v>
       </c>
       <c r="R17">
-        <v>284.5180650982714</v>
+        <v>2.112558230304</v>
       </c>
       <c r="S17">
-        <v>0.01762640442175331</v>
+        <v>8.43497294648902E-06</v>
       </c>
       <c r="T17">
-        <v>0.01762640442175331</v>
+        <v>8.434972946489018E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H18">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N18">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O18">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P18">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q18">
-        <v>173.0132038807396</v>
+        <v>0.1379411504395556</v>
       </c>
       <c r="R18">
-        <v>173.0132038807396</v>
+        <v>1.241470353956</v>
       </c>
       <c r="S18">
-        <v>0.01071847828309903</v>
+        <v>4.956913707405883E-06</v>
       </c>
       <c r="T18">
-        <v>0.01071847828309903</v>
+        <v>4.956913707405881E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04110466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123314</v>
+      </c>
+      <c r="I19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="J19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="N19">
+        <v>589.900355</v>
+      </c>
+      <c r="O19">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="P19">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="Q19">
+        <v>8.082552486274446</v>
+      </c>
+      <c r="R19">
+        <v>72.74297237647001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002904464337318773</v>
+      </c>
+      <c r="T19">
+        <v>0.0002904464337318772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.077003</v>
+      </c>
+      <c r="H20">
+        <v>0.231009</v>
+      </c>
+      <c r="I20">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J20">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.27642966666667</v>
+      </c>
+      <c r="N20">
+        <v>33.829289</v>
+      </c>
+      <c r="O20">
+        <v>0.04495771493187356</v>
+      </c>
+      <c r="P20">
+        <v>0.04495771493187355</v>
+      </c>
+      <c r="Q20">
+        <v>0.8683189136223333</v>
+      </c>
+      <c r="R20">
+        <v>7.814870222600999</v>
+      </c>
+      <c r="S20">
+        <v>3.120303050698694E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.120303050698694E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.077003</v>
+      </c>
+      <c r="H21">
+        <v>0.231009</v>
+      </c>
+      <c r="I21">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J21">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>28.51725866666667</v>
+      </c>
+      <c r="N21">
+        <v>85.551776</v>
+      </c>
+      <c r="O21">
+        <v>0.1136947441408982</v>
+      </c>
+      <c r="P21">
+        <v>0.1136947441408982</v>
+      </c>
+      <c r="Q21">
+        <v>2.195914469109333</v>
+      </c>
+      <c r="R21">
+        <v>19.763230221984</v>
+      </c>
+      <c r="S21">
+        <v>7.891016203311024E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.891016203311022E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.077003</v>
+      </c>
+      <c r="H22">
+        <v>0.231009</v>
+      </c>
+      <c r="I22">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J22">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.329513</v>
+      </c>
+      <c r="N22">
+        <v>15.988539</v>
+      </c>
+      <c r="O22">
+        <v>0.02124810186046602</v>
+      </c>
+      <c r="P22">
+        <v>0.02124810186046602</v>
+      </c>
+      <c r="Q22">
+        <v>0.410388489539</v>
+      </c>
+      <c r="R22">
+        <v>3.693496405851</v>
+      </c>
+      <c r="S22">
+        <v>1.474730580885547E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.474730580885547E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.077003</v>
+      </c>
+      <c r="H23">
+        <v>0.231009</v>
+      </c>
+      <c r="I23">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J23">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.710511999999999</v>
+      </c>
+      <c r="N23">
+        <v>17.131536</v>
+      </c>
+      <c r="O23">
+        <v>0.02276709722847351</v>
+      </c>
+      <c r="P23">
+        <v>0.02276709722847351</v>
+      </c>
+      <c r="Q23">
+        <v>0.4397265555359999</v>
+      </c>
+      <c r="R23">
+        <v>3.957538999823999</v>
+      </c>
+      <c r="S23">
+        <v>1.580156888427495E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.580156888427495E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.077003</v>
+      </c>
+      <c r="H24">
+        <v>0.231009</v>
+      </c>
+      <c r="I24">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J24">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="N24">
+        <v>10.067554</v>
+      </c>
+      <c r="O24">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="P24">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="Q24">
+        <v>0.2584106202206667</v>
+      </c>
+      <c r="R24">
+        <v>2.325695581986</v>
+      </c>
+      <c r="S24">
+        <v>9.285982764601955E-06</v>
+      </c>
+      <c r="T24">
+        <v>9.285982764601954E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.077003</v>
+      </c>
+      <c r="H25">
+        <v>0.231009</v>
+      </c>
+      <c r="I25">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J25">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="N25">
+        <v>589.900355</v>
+      </c>
+      <c r="O25">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="P25">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="Q25">
+        <v>15.14136567868833</v>
+      </c>
+      <c r="R25">
+        <v>136.272291108195</v>
+      </c>
+      <c r="S25">
+        <v>0.0005441048073208819</v>
+      </c>
+      <c r="T25">
+        <v>0.0005441048073208817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H26">
+        <v>225.716302</v>
+      </c>
+      <c r="I26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.27642966666667</v>
+      </c>
+      <c r="N26">
+        <v>33.829289</v>
+      </c>
+      <c r="O26">
+        <v>0.04495771493187356</v>
+      </c>
+      <c r="P26">
+        <v>0.04495771493187355</v>
+      </c>
+      <c r="Q26">
+        <v>848.4246680410307</v>
+      </c>
+      <c r="R26">
+        <v>7635.822012369276</v>
+      </c>
+      <c r="S26">
+        <v>0.03048813101320848</v>
+      </c>
+      <c r="T26">
+        <v>0.03048813101320847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H27">
+        <v>225.716302</v>
+      </c>
+      <c r="I27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>28.51725866666667</v>
+      </c>
+      <c r="N27">
+        <v>85.551776</v>
+      </c>
+      <c r="O27">
+        <v>0.1136947441408982</v>
+      </c>
+      <c r="P27">
+        <v>0.1136947441408982</v>
+      </c>
+      <c r="Q27">
+        <v>2145.603389805817</v>
+      </c>
+      <c r="R27">
+        <v>19310.43050825235</v>
+      </c>
+      <c r="S27">
+        <v>0.07710223395770052</v>
+      </c>
+      <c r="T27">
+        <v>0.07710223395770052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="H19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="I19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="J19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>133.059811910809</v>
-      </c>
-      <c r="N19">
-        <v>133.059811910809</v>
-      </c>
-      <c r="O19">
-        <v>0.7211542117675545</v>
-      </c>
-      <c r="P19">
-        <v>0.7211542117675545</v>
-      </c>
-      <c r="Q19">
-        <v>6921.255585586367</v>
-      </c>
-      <c r="R19">
-        <v>6921.255585586367</v>
-      </c>
-      <c r="S19">
-        <v>0.4287841969392248</v>
-      </c>
-      <c r="T19">
-        <v>0.4287841969392248</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H28">
+        <v>225.716302</v>
+      </c>
+      <c r="I28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.329513</v>
+      </c>
+      <c r="N28">
+        <v>15.988539</v>
+      </c>
+      <c r="O28">
+        <v>0.02124810186046602</v>
+      </c>
+      <c r="P28">
+        <v>0.02124810186046602</v>
+      </c>
+      <c r="Q28">
+        <v>400.9859886069752</v>
+      </c>
+      <c r="R28">
+        <v>3608.873897462778</v>
+      </c>
+      <c r="S28">
+        <v>0.01440942704240084</v>
+      </c>
+      <c r="T28">
+        <v>0.01440942704240084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H29">
+        <v>225.716302</v>
+      </c>
+      <c r="I29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.710511999999999</v>
+      </c>
+      <c r="N29">
+        <v>17.131536</v>
+      </c>
+      <c r="O29">
+        <v>0.02276709722847351</v>
+      </c>
+      <c r="P29">
+        <v>0.02276709722847351</v>
+      </c>
+      <c r="Q29">
+        <v>429.6518837222079</v>
+      </c>
+      <c r="R29">
+        <v>3866.866953499871</v>
+      </c>
+      <c r="S29">
+        <v>0.01543953566465726</v>
+      </c>
+      <c r="T29">
+        <v>0.01543953566465726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H30">
+        <v>225.716302</v>
+      </c>
+      <c r="I30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="N30">
+        <v>10.067554</v>
+      </c>
+      <c r="O30">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="P30">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="Q30">
+        <v>252.4901176739231</v>
+      </c>
+      <c r="R30">
+        <v>2272.411059065308</v>
+      </c>
+      <c r="S30">
+        <v>0.009073229571409294</v>
+      </c>
+      <c r="T30">
+        <v>0.009073229571409292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H31">
+        <v>225.716302</v>
+      </c>
+      <c r="I31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="N31">
+        <v>589.900355</v>
+      </c>
+      <c r="O31">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="P31">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="Q31">
+        <v>14794.45851989858</v>
+      </c>
+      <c r="R31">
+        <v>133150.1266790872</v>
+      </c>
+      <c r="S31">
+        <v>0.5316387024267105</v>
+      </c>
+      <c r="T31">
+        <v>0.5316387024267104</v>
       </c>
     </row>
   </sheetData>
